--- a/medicine/Hématologie/Proaccélérine/Proaccélérine.xlsx
+++ b/medicine/Hématologie/Proaccélérine/Proaccélérine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proacc%C3%A9l%C3%A9rine</t>
+          <t>Proaccélérine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La proaccélérine ou facteur V (prononcé « facteur cinq ») est une protéine de la coagulation sanguine, cofacteur du facteur X. Un déficit en facteur V peut amener à des situations d'hémorragie. La mutation de la protéine en facteur V Leiden entraîne une prédisposition aux thromboses.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proacc%C3%A9l%C3%A9rine</t>
+          <t>Proaccélérine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le facteur V appartient à la voie commune de coagulation. C'est le cofacteur du facteur X qui forme le complexe prothrombinase. Il n'a pas d'activité enzymatique.
 Autrefois, sa forme activée (Va) portait le numéro de facteur VI.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Proacc%C3%A9l%C3%A9rine</t>
+          <t>Proaccélérine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Déficit</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un déficit en facteur V se traduit dans les examens de biologie médicale par une diminution du taux de prothrombine et un allongement du temps de céphaline activée. Il n'est pas vitamine K dépendant.
 Les déficits en facteur V peuvent avoir pour origine une coagulation intravasculaire disséminée, une insuffisance hépatocellulaire majeure ou plus rarement un déficit congénital. Les anticorps anti-facteur V sont très rares.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Proacc%C3%A9l%C3%A9rine</t>
+          <t>Proaccélérine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Facteur V Leiden</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il arrive qu'une mutation entraîne le remplacement d'une glutamine en arginine à la position 506 du facteur V. Cette modification, dite Facteur V Leiden, empêche l'action inhibitrice de la protéine C activée, anticoagulante, ce qui entraîne une prédisposition aux thromboses (thrombophilie).
 </t>
